--- a/biology/Botanique/Canna_(genre)/Canna_(genre).xlsx
+++ b/biology/Botanique/Canna_(genre)/Canna_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canna est un genre de plantes monocotylédones de la famille des Cannaceae. Il comprend plusieurs espèces de plantes herbacées des régions tropicales et subtropicales d'Amérique.
 Des hybrides de Canna sont très fréquemment utilisés comme plantes florales ornementales.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 mars 2012)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 mars 2012):
 Canna bangii Kraenzl. (1912) ;
 Canna flaccida Salisb. (1791) ;
 Canna ×generalis Bailey (pro sp.) ;
@@ -553,7 +567,9 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A COMPLÉTER
 Canna lambertii Lindl.
